--- a/mosip_master/xlsx/reg_center_type.xlsx
+++ b/mosip_master/xlsx/reg_center_type.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="30">
   <si>
     <t>code</t>
   </si>
@@ -44,6 +44,24 @@
     <t>is_active</t>
   </si>
   <si>
+    <t>cr_by</t>
+  </si>
+  <si>
+    <t>cr_dtimes</t>
+  </si>
+  <si>
+    <t>upd_by</t>
+  </si>
+  <si>
+    <t>upd_dtimes</t>
+  </si>
+  <si>
+    <t>is_deleted</t>
+  </si>
+  <si>
+    <t>del_dtimes</t>
+  </si>
+  <si>
     <t>REG</t>
   </si>
   <si>
@@ -56,6 +74,12 @@
     <t>eng</t>
   </si>
   <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
     <t xml:space="preserve">नियमित </t>
   </si>
   <si>
@@ -65,19 +89,34 @@
     <t>hin</t>
   </si>
   <si>
+    <t>Régulière</t>
+  </si>
+  <si>
+    <t>Centre d'inscription régulier</t>
+  </si>
+  <si>
+    <t>fra</t>
+  </si>
+  <si>
+    <t>NEWREG</t>
+  </si>
+  <si>
+    <t>TEST REGISTRATION CENTER</t>
+  </si>
+  <si>
+    <t>Testing Purpose</t>
+  </si>
+  <si>
+    <t>globaladmin</t>
+  </si>
+  <si>
+    <t>vishal</t>
+  </si>
+  <si>
     <t>Centro de registro regular</t>
   </si>
   <si>
-    <t>spa</t>
-  </si>
-  <si>
-    <t>Régulière</t>
-  </si>
-  <si>
-    <t>Centre d'inscription régulier</t>
-  </si>
-  <si>
-    <t>fra</t>
+    <t>es</t>
   </si>
 </sst>
 </file>
@@ -90,19 +129,13 @@
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <charset val="1"/>
     </font>
     <font>
       <u/>
@@ -569,147 +602,143 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1243,20 +1272,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.81818181818182" defaultRowHeight="14.5" outlineLevelRow="4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.81818181818182" defaultRowHeight="14.5" outlineLevelRow="5"/>
   <cols>
-    <col min="1" max="1" width="5.54545454545455" customWidth="1"/>
-    <col min="2" max="2" width="9.27272727272727" customWidth="1"/>
     <col min="3" max="3" width="26.5454545454545" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1272,77 +1300,198 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
       </c>
-      <c r="F2"/>
-      <c r="G2" s="1"/>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="1">
+        <v>45526.6013926323</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
       </c>
-      <c r="F3"/>
-      <c r="G3" s="1"/>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="1">
+        <v>45526.6013926323</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="4" ht="43.5" spans="1:5">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
       </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="1">
+        <v>45526.6013926323</v>
+      </c>
+      <c r="H4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="E5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="1">
+        <v>45636.2292514052</v>
+      </c>
+      <c r="H5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="1">
+        <v>45636.231948358</v>
+      </c>
+      <c r="J5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="G6" s="1">
+        <v>45526.6013926323</v>
+      </c>
+      <c r="H6" t="s">
         <v>16</v>
       </c>
-      <c r="E5" t="b">
-        <v>1</v>
+      <c r="I6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
